--- a/Required files/Low-thoughput validation.xlsx
+++ b/Required files/Low-thoughput validation.xlsx
@@ -1,48 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27815"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martabadiagraset/Library/CloudStorage/OneDrive-IBEC/IAPP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibecbarcelona-my.sharepoint.com/personal/mbadia_ibecbarcelona_eu1/Documents/IAPP/Dimsum/Analysis_2024/GitHub codes/Required files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="31" documentId="11_0861107A731A4504F16F9FBF898DC8E41D18A456" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979D2D49-96CF-DB42-8102-7DE861205A86}"/>
   <bookViews>
-    <workbookView xWindow="12900" yWindow="500" windowWidth="12700" windowHeight="15560"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="25240" windowHeight="15560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Low-throughput validation" sheetId="1" r:id="rId1"/>
     <sheet name="Animal sequences" sheetId="2" r:id="rId2"/>
+    <sheet name="Double mutants validation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
   <si>
     <t>Percentage_growth</t>
   </si>
@@ -204,16 +195,76 @@
   </si>
   <si>
     <t>H18R 3</t>
+  </si>
+  <si>
+    <t>variant</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Nscore</t>
+  </si>
+  <si>
+    <t>Nham_aa</t>
+  </si>
+  <si>
+    <t>K1I, A25T</t>
+  </si>
+  <si>
+    <t>H18R, A25T</t>
+  </si>
+  <si>
+    <t>S20G</t>
+  </si>
+  <si>
+    <t>S29P</t>
+  </si>
+  <si>
+    <t>F23L</t>
+  </si>
+  <si>
+    <t>H18R, F23L</t>
+  </si>
+  <si>
+    <t>S20G, F23L</t>
+  </si>
+  <si>
+    <t>F23L, S29P</t>
+  </si>
+  <si>
+    <t>V17I, F23L</t>
+  </si>
+  <si>
+    <t>S29P 1</t>
+  </si>
+  <si>
+    <t>S29P 2</t>
+  </si>
+  <si>
+    <t>S29P 3</t>
+  </si>
+  <si>
+    <t>S20G 1</t>
+  </si>
+  <si>
+    <t>S20G 2</t>
+  </si>
+  <si>
+    <t>S20G 3</t>
+  </si>
+  <si>
+    <t>A5C 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -247,6 +298,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -295,7 +359,8 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -629,11 +694,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -940,7 +1005,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="B28">
         <v>26.85</v>
@@ -1008,8 +1073,8 @@
       <c r="A34" t="s">
         <v>43</v>
       </c>
-      <c r="B34">
-        <v>1.69</v>
+      <c r="B34" s="11">
+        <v>1.6089</v>
       </c>
       <c r="C34" t="s">
         <v>42</v>
@@ -1019,8 +1084,8 @@
       <c r="A35" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="10">
-        <v>1.608910891089109</v>
+      <c r="B35" s="11">
+        <v>1.74</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1030,8 +1095,8 @@
       <c r="A36" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="10">
-        <v>1.8</v>
+      <c r="B36" s="11">
+        <v>1.9</v>
       </c>
       <c r="C36" t="s">
         <v>42</v>
@@ -1041,8 +1106,8 @@
       <c r="A37" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="9">
-        <v>0.18060000000000001</v>
+      <c r="B37" s="11">
+        <v>0.1806083650190114</v>
       </c>
       <c r="C37" t="s">
         <v>45</v>
@@ -1052,8 +1117,8 @@
       <c r="A38" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="9">
-        <v>4.1700000000000001E-2</v>
+      <c r="B38" s="11">
+        <v>4.1666666666666671E-2</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1063,8 +1128,8 @@
       <c r="A39" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="9">
-        <v>5.2999999999999999E-2</v>
+      <c r="B39" s="11">
+        <v>0</v>
       </c>
       <c r="C39" t="s">
         <v>45</v>
@@ -1074,8 +1139,8 @@
       <c r="A40" t="s">
         <v>47</v>
       </c>
-      <c r="B40" s="9">
-        <v>2.3167</v>
+      <c r="B40" s="11">
+        <v>2.3167155425219943</v>
       </c>
       <c r="C40" s="9" t="s">
         <v>49</v>
@@ -1085,8 +1150,8 @@
       <c r="A41" t="s">
         <v>48</v>
       </c>
-      <c r="B41" s="9">
-        <v>2.0485000000000002</v>
+      <c r="B41" s="11">
+        <v>1.9950000000000001</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>49</v>
@@ -1096,21 +1161,78 @@
       <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="B42" s="9">
-        <v>2.14</v>
+      <c r="B42" s="11">
+        <v>2.0485175202156336</v>
       </c>
       <c r="C42" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B43" s="9"/>
+      <c r="A43" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="9"/>
+      <c r="A44" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="9"/>
+      <c r="A45" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3.02</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3.7187999999999999</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1119,7 +1241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1569,4 +1691,582 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AEE96D-20BF-F646-BE29-920025FF514B}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2.3167155425219943</v>
+      </c>
+      <c r="C2">
+        <v>-0.54</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1.9950000000000001</v>
+      </c>
+      <c r="C3">
+        <v>-0.54</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2.0485175202156336</v>
+      </c>
+      <c r="C4">
+        <v>-0.54</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="11">
+        <v>0.1806083650190114</v>
+      </c>
+      <c r="C5">
+        <v>-0.98</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4.1666666666666671E-2</v>
+      </c>
+      <c r="C6">
+        <v>-0.98</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="11">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-0.98</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8">
+        <v>20.4878</v>
+      </c>
+      <c r="C8">
+        <v>1.51</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>17.2667</v>
+      </c>
+      <c r="C9">
+        <v>1.51</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>17.742570000000001</v>
+      </c>
+      <c r="C10">
+        <v>1.51</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="11">
+        <v>13.975199999999999</v>
+      </c>
+      <c r="C11">
+        <v>0.97</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="11">
+        <v>10.931699999999999</v>
+      </c>
+      <c r="C12">
+        <v>0.97</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="11">
+        <v>5.8769</v>
+      </c>
+      <c r="C13">
+        <v>0.97</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="11">
+        <v>6.593406593406594</v>
+      </c>
+      <c r="C14">
+        <v>0.53</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="11">
+        <v>8.3529411764705888</v>
+      </c>
+      <c r="C15">
+        <v>0.53</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="11">
+        <v>4.0201000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0.53</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="11">
+        <v>3.3</v>
+      </c>
+      <c r="C17">
+        <v>0.23</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="11">
+        <v>3.02</v>
+      </c>
+      <c r="C18">
+        <v>0.23</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="11">
+        <v>3.7187999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.23</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="11">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C20">
+        <v>-0.11</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="11">
+        <v>0.38</v>
+      </c>
+      <c r="C21">
+        <v>-0.11</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="11">
+        <v>0.47</v>
+      </c>
+      <c r="C22">
+        <v>-0.11</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="C23">
+        <v>-1.9</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="11">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="C24">
+        <v>-1.9</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1.15E-2</v>
+      </c>
+      <c r="C25">
+        <v>-1.9</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="11">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-2.88</v>
+      </c>
+      <c r="D26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="11">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>-2.88</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" s="11">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>-2.88</v>
+      </c>
+      <c r="D28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="C29">
+        <v>-2.13</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="11">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="C30">
+        <v>-2.13</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="11">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="C31">
+        <v>-2.13</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="11">
+        <v>6.4999999999999997E-3</v>
+      </c>
+      <c r="C32">
+        <v>-2</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="C33">
+        <v>-2</v>
+      </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="11">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>-2</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1.6089</v>
+      </c>
+      <c r="C35">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" s="11">
+        <v>1.74</v>
+      </c>
+      <c r="C36">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1.9</v>
+      </c>
+      <c r="C37">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-1.823</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" s="11">
+        <v>4.3E-3</v>
+      </c>
+      <c r="C39">
+        <v>-1.823</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="11">
+        <v>1.0200000000000001E-2</v>
+      </c>
+      <c r="C40">
+        <v>-1.823</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Required files/Low-thoughput validation.xlsx
+++ b/Required files/Low-thoughput validation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ibecbarcelona-my.sharepoint.com/personal/mbadia_ibecbarcelona_eu1/Documents/IAPP/Dimsum/Analysis_2024/GitHub codes/Required files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="11_0861107A731A4504F16F9FBF898DC8E41D18A456" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{979D2D49-96CF-DB42-8102-7DE861205A86}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_0861107A731A4504F16F9FBF898DC8E41D18A456" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{376ACF25-6BBE-B74C-8E46-4DC387182787}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="500" windowWidth="25240" windowHeight="15560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="73">
   <si>
     <t>Percentage_growth</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>Percentage</t>
-  </si>
-  <si>
-    <t>Nscore</t>
   </si>
   <si>
     <t>Nham_aa</t>
@@ -1005,7 +1002,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B28">
         <v>26.85</v>
@@ -1170,68 +1167,68 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="11">
         <v>0.70399999999999996</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44" s="11">
         <v>0.38</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B45" s="11">
         <v>0.47</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="11">
         <v>3.3</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="11">
         <v>3.02</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B48" s="11">
         <v>3.7187999999999999</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1695,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AEE96D-20BF-F646-BE29-920025FF514B}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1706,7 +1703,7 @@
     <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>54</v>
       </c>
@@ -1716,11 +1713,8 @@
       <c r="C1" t="s">
         <v>56</v>
       </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>49</v>
       </c>
@@ -1728,13 +1722,10 @@
         <v>2.3167155425219943</v>
       </c>
       <c r="C2">
-        <v>-0.54</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
@@ -1742,13 +1733,10 @@
         <v>1.9950000000000001</v>
       </c>
       <c r="C3">
-        <v>-0.54</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>49</v>
       </c>
@@ -1756,13 +1744,10 @@
         <v>2.0485175202156336</v>
       </c>
       <c r="C4">
-        <v>-0.54</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>45</v>
       </c>
@@ -1770,13 +1755,10 @@
         <v>0.1806083650190114</v>
       </c>
       <c r="C5">
-        <v>-0.98</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>45</v>
       </c>
@@ -1784,13 +1766,10 @@
         <v>4.1666666666666671E-2</v>
       </c>
       <c r="C6">
-        <v>-0.98</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>45</v>
       </c>
@@ -1798,13 +1777,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>-0.98</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -1812,13 +1788,10 @@
         <v>20.4878</v>
       </c>
       <c r="C8">
-        <v>1.51</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>23</v>
       </c>
@@ -1826,13 +1799,10 @@
         <v>17.2667</v>
       </c>
       <c r="C9">
-        <v>1.51</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1840,349 +1810,274 @@
         <v>17.742570000000001</v>
       </c>
       <c r="C10">
-        <v>1.51</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="11">
         <v>13.975199999999999</v>
       </c>
       <c r="C11">
-        <v>0.97</v>
-      </c>
-      <c r="D11">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="11">
         <v>10.931699999999999</v>
       </c>
       <c r="C12">
-        <v>0.97</v>
-      </c>
-      <c r="D12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B13" s="11">
         <v>5.8769</v>
       </c>
       <c r="C13">
-        <v>0.97</v>
-      </c>
-      <c r="D13">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B14" s="11">
         <v>6.593406593406594</v>
       </c>
       <c r="C14">
-        <v>0.53</v>
-      </c>
-      <c r="D14">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="11">
         <v>8.3529411764705888</v>
       </c>
       <c r="C15">
-        <v>0.53</v>
-      </c>
-      <c r="D15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="11">
         <v>4.0201000000000002</v>
       </c>
       <c r="C16">
-        <v>0.53</v>
-      </c>
-      <c r="D16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B17" s="11">
         <v>3.3</v>
       </c>
       <c r="C17">
-        <v>0.23</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B18" s="11">
         <v>3.02</v>
       </c>
       <c r="C18">
-        <v>0.23</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B19" s="11">
         <v>3.7187999999999999</v>
       </c>
       <c r="C19">
-        <v>0.23</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B20" s="11">
         <v>0.70399999999999996</v>
       </c>
       <c r="C20">
-        <v>-0.11</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B21" s="11">
         <v>0.38</v>
       </c>
       <c r="C21">
-        <v>-0.11</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="11">
         <v>0.47</v>
       </c>
       <c r="C22">
-        <v>-0.11</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="11">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="C23">
-        <v>-1.9</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B24" s="11">
         <v>7.3000000000000001E-3</v>
       </c>
       <c r="C24">
-        <v>-1.9</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" s="11">
         <v>1.15E-2</v>
       </c>
       <c r="C25">
-        <v>-1.9</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="11">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>-2.88</v>
-      </c>
-      <c r="D26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B27" s="11">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>-2.88</v>
-      </c>
-      <c r="D27">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B28" s="11">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>-2.88</v>
-      </c>
-      <c r="D28">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="11">
         <v>2.2000000000000001E-3</v>
       </c>
       <c r="C29">
-        <v>-2.13</v>
-      </c>
-      <c r="D29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="11">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="C30">
-        <v>-2.13</v>
-      </c>
-      <c r="D30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B31" s="11">
         <v>9.5999999999999992E-3</v>
       </c>
       <c r="C31">
-        <v>-2.13</v>
-      </c>
-      <c r="D31">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="11">
         <v>6.4999999999999997E-3</v>
       </c>
       <c r="C32">
-        <v>-2</v>
-      </c>
-      <c r="D32">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33" s="11">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="C33">
-        <v>-2</v>
-      </c>
-      <c r="D33">
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B34" s="11">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>-2</v>
-      </c>
-      <c r="D34">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>42</v>
       </c>
@@ -2190,13 +2085,10 @@
         <v>1.6089</v>
       </c>
       <c r="C35">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>42</v>
       </c>
@@ -2204,13 +2096,10 @@
         <v>1.74</v>
       </c>
       <c r="C36">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>42</v>
       </c>
@@ -2218,51 +2107,39 @@
         <v>1.9</v>
       </c>
       <c r="C37">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="11">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>-1.823</v>
-      </c>
-      <c r="D38">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="11">
         <v>4.3E-3</v>
       </c>
       <c r="C39">
-        <v>-1.823</v>
-      </c>
-      <c r="D39">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="11">
         <v>1.0200000000000001E-2</v>
       </c>
       <c r="C40">
-        <v>-1.823</v>
-      </c>
-      <c r="D40">
         <v>2</v>
       </c>
     </row>
